--- a/dup/dup_Wisata.xlsx
+++ b/dup/dup_Wisata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Wisata+Bantul/@-7.8056036,110.2400464,11z/data=!4m2!2m1!6e1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -522,25 +516,24 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.4</v>
+        <v>-7.865897</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.865897</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.322449</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Puspa+Gading+Tegaldowo+Bantul+Yogyakarta/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af9a976fbdd71:0x6d10233acd954cc0!8m2!3d-7.8658973!4d110.3224493!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11h764h225?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Puspa+Gading+Tegaldowo+Bantul+Yogyakarta/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7af9a976fbdd71:0x6d10233acd954cc0!8m2!3d-7.8658973!4d110.3224493!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11h764h225?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -563,25 +556,24 @@
           <t>0857-2918-5771</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>-7.892837</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.892837</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.302484</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Kampung+Santan/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7aff08f7ef2a2b:0x6360343940ff64a7!8m2!3d-7.8928375!4d110.3024844!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVjMXBmTVhsblJSQULgAQD6AQQIABA5!16s%2Fg%2F11gk8k8k5p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -600,25 +592,24 @@
           <t>0857-2918-5771</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>-7.930867</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.930867</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.430857</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Seribu+Batu+Songgo+Langit/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a531be5da247f:0x51f131c4dc279d01!8m2!3d-7.9308668!4d110.4308565!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11gy4zj9hw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Seribu+Batu+Songgo+Langit/@-7.8658973,110.0340582,11z/data=!4m11!1m3!2m2!1sWisata+Bantul!6e1!3m6!1s0x2e7a531be5da247f:0x51f131c4dc279d01!8m2!3d-7.9308668!4d110.4308565!15sCg1XaXNhdGEgQmFudHVsWg8iDXdpc2F0YSBiYW50dWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11gy4zj9hw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -645,25 +636,24 @@
           <t>0818-629-901</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>-8.028155999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.028155999999999</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.638331</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Goa+Jomblang/@-7.8433997,110.3828989,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb41fce34d717:0xf9ffcb6f9fbd5cce!8m2!3d-8.0281562!4d110.6383307!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b6nqqqkj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -682,25 +672,24 @@
           <t>0818-0276-2944</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>-7.893576</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.893576</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.657391</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisata+Klayar/@-7.893576,110.3689998,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4bb1ea1608c3:0x3a6a2d052497008d!8m2!3d-7.893576!4d110.6573909!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b6qlqft9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -719,25 +708,24 @@
           <t>0818-0276-2944</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.2</v>
+        <v>-7.821208</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.821208</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.67158</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gunung+Gambar/@-7.893576,110.3689998,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a485354e4c971:0xf2b2aa6c162aa48a!8m2!3d-7.8212079!4d110.67158!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b700k5xm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -756,25 +744,24 @@
           <t>0882-3247-2318</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>-7.927053</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.927053</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.647753</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GOA+PINDUL+GUNUNGKIDUL/@-7.8659968,110.35043,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b0248677a97:0x9206eb1bf205224b!8m2!3d-7.927053!4d110.647753!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJJY1VsdVRGOTNSUkFC4AEA-gEFCI4BEDE!16s%2Fg%2F11v3pncrbv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GOA+PINDUL+GUNUNGKIDUL/@-7.8659968,110.35043,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b0248677a97:0x9206eb1bf205224b!8m2!3d-7.927053!4d110.647753!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJJY1VsdVRGOTNSUkFC4AEA-gEFCI4BEDE!16s%2Fg%2F11v3pncrbv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -801,25 +788,24 @@
           <t>0857-4197-3511</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.926668</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.926668</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.64775</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Goa+Pindul+Dewa+Bejo/@-7.9190556,110.3293251,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b3dee422bc1:0x65a12e843f2705f7!8m2!3d-7.9266681!4d110.6477499!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11bxfqddsp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -842,25 +828,24 @@
           <t>0819-3179-7178</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>-8.009694</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.009694</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.638918</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kalisuci+Cave+Tubing/@-7.9581899,110.2622565,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb4137418396b:0x2a65c2132cf56632!8m2!3d-8.0096941!4d110.638918!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11gbxfc9kn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kalisuci+Cave+Tubing/@-7.9581899,110.2622565,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb4137418396b:0x2a65c2132cf56632!8m2!3d-8.0096941!4d110.638918!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11gbxfc9kn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>18 jam lalu</t>
         </is>
@@ -879,25 +864,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.923528</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.923528</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.646971</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Air+Terjun+Pengantin/@-8.1367336,110.2801609,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b167e8cd65f:0x535ea689d2d6e669!8m2!3d-7.923528!4d110.6469708!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJmY1RSZmJVbEJFQUXgAQD6AQQIABBG!16s%2Fg%2F11cs9m1brf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -916,25 +900,24 @@
           <t>0813-2744-8758</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>-8.145780999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.145780999999999</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.607338</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jeep+wisata+pantai+gunungkidul/@-8.1397003,110.3253564,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbd78db3d9df:0x4ea8ac45be4ce739!8m2!3d-8.1457815!4d110.6073381!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5rTlV0cGRqaG5SUkFC4AEA-gEECAAQJg!16s%2Fg%2F11tmgwrfph?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jeep+wisata+pantai+gunungkidul/@-8.1397003,110.3253564,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbd78db3d9df:0x4ea8ac45be4ce739!8m2!3d-8.1457815!4d110.6073381!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5rTlV0cGRqaG5SUkFC4AEA-gEECAAQJg!16s%2Fg%2F11tmgwrfph?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -957,25 +940,24 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.9</v>
+        <v>-8.145322999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.145322999999999</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.604636</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisata+Gunungkidul/@-7.931078,110.3595261,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbb7fc477e0f:0x2ad1be52fe3ded02!8m2!3d-8.1453231!4d110.6046364!15sChJXaXNhdGEgR3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11vt2kdtbm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -994,25 +976,24 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.9</v>
+        <v>-7.820595</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.820595</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.596315</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Wisata+Puncak+Clongop+-+WPC/@-7.931078,110.3595261,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4f5006534377:0x99ab78ddce20139f!8m2!3d-7.8205951!4d110.5963146!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJQY1UxcWNHMUJSUkFC4AEA-gEFCIoBED0!16s%2Fg%2F11h2jw_00f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1031,25 +1012,24 @@
           <t>0813-2864-4776</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.2</v>
+        <v>-8.026496</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.026496</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.587334</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Etalase+taman+batu+geopark+gunungsewu/@-7.8575138,110.2004101,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb3de60e042d9:0x1c187b054d2e43ec!8m2!3d-8.0264962!4d110.5873339!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU10TVhWeUxUQm5SUkFC4AEA-gEECAAQNw!16s%2Fg%2F11cjg92z0y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Etalase+taman+batu+geopark+gunungsewu/@-7.8575138,110.2004101,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb3de60e042d9:0x1c187b054d2e43ec!8m2!3d-8.0264962!4d110.5873339!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU10TVhWeUxUQm5SUkFC4AEA-gEECAAQNw!16s%2Fg%2F11cjg92z0y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1072,25 +1052,24 @@
           <t>0813-2864-4776</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>-8.115741</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.115741</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.490896</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Njanganan/@-8.1157408,110.2025048,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf89429720f7:0x741ba89017b5dd6!8m2!3d-8.1157408!4d110.4908959!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyYkhSWWNIaDNSUkFC4AEA-gEECAAQEA!16s%2Fg%2F11g6pfw7kr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Njanganan/@-8.1157408,110.2025048,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7baf89429720f7:0x741ba89017b5dd6!8m2!3d-8.1157408!4d110.4908959!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyYkhSWWNIaDNSUkFC4AEA-gEECAAQEA!16s%2Fg%2F11g6pfw7kr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1109,25 +1088,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.1</v>
+        <v>-8.009925000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.009925000000001</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.607958</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Candi+Dengok/@-8.127738,110.2341956,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bb38cd62748f3:0x6ad4bbec71ccfd1c!8m2!3d-8.009925!4d110.607958!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJsYVhCbWFXSm5FQUXgAQD6AQUI-QQQKg!16s%2Fg%2F11g9jsfk4k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1142,25 +1120,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.1</v>
+        <v>-8.144959</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.144959</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.602098</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Slili/@-8.127738,110.2341956,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbbe4f17248d:0x16f45166c649f404!8m2!3d-8.1449587!4d110.6020982!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI0ZFZCUGIwVm5FQUXgAQD6AQQIABAu!16s%2Fg%2F11n0v4q6bn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Slili/@-8.127738,110.2341956,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7bbbbe4f17248d:0x16f45166c649f404!8m2!3d-8.1449587!4d110.6020982!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI0ZFZCUGIwVm5FQUXgAQD6AQQIABAu!16s%2Fg%2F11n0v4q6bn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1187,25 +1164,24 @@
           <t>0822-2604-1137</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.9</v>
+        <v>-7.930977</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.930977</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.647926</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisata+pindul+jogja/@-8.0059649,110.3859813,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b7284e70a5f:0xff842e7957c382bb!8m2!3d-7.9309772!4d110.647926!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5LYTJSNWQxOW5SUkFC4AEA-gEECAAQQQ!16s%2Fg%2F11flbr9fwv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisata+pindul+jogja/@-8.0059649,110.3859813,11z/data=!4m11!1m3!2m2!1sWisata+Gunungkidul!6e1!3m6!1s0x2e7a4b7284e70a5f:0xff842e7957c382bb!8m2!3d-7.9309772!4d110.647926!15sChJXaXNhdGEgR3VudW5na2lkdWxaFCISd2lzYXRhIGd1bnVuZ2tpZHVskgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5LYTJSNWQxOW5SUkFC4AEA-gEECAAQQQ!16s%2Fg%2F11flbr9fwv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1224,25 +1200,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>-7.865523</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.865523</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.203555</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jangkang+View+Sidowayah/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7afb55349ae29f:0x10745b0ab18230a4!8m2!3d-7.8655231!4d110.2035546!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgELc2NlbmljX3Nwb3SaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXlPR1JJY1ZSUkVBReABAPoBBAgAECU!16s%2Fg%2F11h1ml0yc3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1257,25 +1232,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>-7.807055</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.807055</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.177803</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Curug+Mbendo/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7afb111e85e107:0xb3e589e463d560ef!8m2!3d-7.8070545!4d110.1778028!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI0TjFCNlNVTm5FQUXgAQD6AQQIABAP!16s%2Fg%2F11fjx7k6cy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1290,25 +1264,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>-7.813807</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.813807</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.503432</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+New+Nglepen/@-7.8138068,110.3592361,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a50664fd7b7f5:0x7f92cc1801a80020!8m2!3d-7.8138068!4d110.5034317!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxNbkJEWHpkblJSQULgAQD6AQQIABAR!16s%2Fg%2F11bc7szyp5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1323,25 +1296,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>-7.813807</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.813807</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.503432</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+New+Nglepen/@-7.8138068,110.3592361,12z/data=!4m11!1m3!2m2!1sWisata+Sleman!6e1!3m6!1s0x2e7a50664fd7b7f5:0x7f92cc1801a80020!8m2!3d-7.8138068!4d110.5034317!15sCg1XaXNhdGEgU2xlbWFuWg8iDXdpc2F0YSBzbGVtYW6SARJ0b3VyaXN0X2F0dHJhY3Rpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxNbkJEWHpkblJSQULgAQD6AQQIABAR!16s%2Fg%2F11bc7szyp5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
